--- a/admin/uploads/th273thuylinh.xlsx
+++ b/admin/uploads/th273thuylinh.xlsx
@@ -271,10 +271,10 @@
     <t>Aó moto GP</t>
   </si>
   <si>
-    <t>78640324277620</t>
+    <t>TH273</t>
   </si>
   <si>
-    <t>TH33</t>
+    <t>78640324277620</t>
   </si>
 </sst>
 </file>
@@ -1729,7 +1729,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E9"/>
+      <selection activeCell="C5" sqref="C5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,7 +1844,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="93"/>
       <c r="E5" s="94"/>
@@ -2116,7 +2116,7 @@
       <c r="J15" s="89"/>
       <c r="K15" s="90"/>
       <c r="L15" s="90" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M15" s="91"/>
       <c r="N15" s="86"/>
